--- a/Excel/WriteBackTest2.xlsx
+++ b/Excel/WriteBackTest2.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\ssas-try\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F84FD5-AAD1-4EF8-9E4B-9384427DBA44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56549E7B-4484-4FDD-A3CB-0B74693F22A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$3:$C$5</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="34" r:id="rId2"/>
+    <pivotCache cacheId="58" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,11 +37,14 @@
     <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=WritebackTest;Data Source=192.168.0.115\MSSQLSERVER2019M;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="KC Writeback Test Source" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
+  <connection id="2" xr16:uid="{A44C82BE-A987-43DA-9DB7-014DADAABD10}" keepAlive="1" name="Connection" type="5" refreshedVersion="6" background="1" saveData="1">
+    <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=WritebackTest;Data Source=192.168.0.115\MSSQLSERVER2019M;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="DRILLTHROUGH MAXROWS 1000 SELECT FROM [KC Writeback Test Source] WHERE (([Measures].[Value],[Dim Account].[Account Id].&amp;[4]))" commandType="4"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Row Labels</t>
   </si>
@@ -58,6 +65,24 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>[Msr Sales].[$Dim Account.Account Id]</t>
+  </si>
+  <si>
+    <t>[Msr Sales].[$Dim Date.Date]</t>
+  </si>
+  <si>
+    <t>[Msr Sales].[Value]</t>
+  </si>
+  <si>
+    <t>2020-04-14</t>
+  </si>
+  <si>
+    <t>2020-06-04</t>
+  </si>
+  <si>
+    <t>Data returned for Value, 4 (First 1000 rows).</t>
   </si>
 </sst>
 </file>
@@ -118,9 +143,10 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Andrey Belchenko" refreshedDate="44265.706240624997" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{FFC213BA-23DE-4F81-A568-C4BD0D297C0C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Andrey Belchenko" refreshedDate="44266.068008912036" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{FFC213BA-23DE-4F81-A568-C4BD0D297C0C}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
+    <cacheField name="[Measures].[Value]" caption="Value" numFmtId="0" hierarchy="5" level="32767"/>
     <cacheField name="[Dim Account].[Account Id].[Account Id]" caption="Account Id" numFmtId="0" level="1" mappingCount="1">
       <sharedItems count="4">
         <s v="[Dim Account].[Account Id].&amp;[1]" c="1" cp="1">
@@ -136,7 +162,7 @@
           <x v="3"/>
         </s>
       </sharedItems>
-      <mpMap v="1"/>
+      <mpMap v="2"/>
     </cacheField>
     <cacheField name="[Dim Account].[Account Id].[Account Id].[Name_]" caption="Name_" propertyName="Name_" numFmtId="0" level="1" memberPropertyField="1">
       <sharedItems count="4">
@@ -146,22 +172,21 @@
         <s v="Account 4"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Measures].[Value]" caption="Value" numFmtId="0" hierarchy="5" level="32767"/>
   </cacheFields>
   <cacheHierarchies count="6">
     <cacheHierarchy uniqueName="[Dim Account].[Account Id]" caption="Account Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Account].[Account Id].[All]" allUniqueName="[Dim Account].[Account Id].[All]" dimensionUniqueName="[Dim Account]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
+        <fieldUsage x="1"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Dim Account].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim Account].[Name].[All]" allUniqueName="[Dim Account].[Name].[All]" dimensionUniqueName="[Dim Account]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Account].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim Account].[Name].[All]" allUniqueName="[Dim Account].[Name].[All]" dimensionUniqueName="[Dim Account]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Date].[Date]" caption="Date" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Date].[Date].[All]" allUniqueName="[Dim Date].[Date].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Date].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim Date].[Month].[All]" allUniqueName="[Dim Date].[Month].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Date].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim Date].[Year].[All]" allUniqueName="[Dim Date].[Year].[All]" dimensionUniqueName="[Dim Date]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[Value]" caption="Value" measure="1" displayFolder="" measureGroup="Msr Sales" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="2"/>
+        <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
   </cacheHierarchies>
@@ -187,9 +212,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02B7C075-05CA-448E-A2D6-5F9ED205A372}" name="PivotTable1" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02B7C075-05CA-448E-A2D6-5F9ED205A372}" name="PivotTable1" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="4">
         <item x="0"/>
@@ -199,10 +225,9 @@
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="1"/>
   </rowFields>
   <rowItems count="5">
     <i>
@@ -225,12 +250,12 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField fld="2" baseField="0" baseItem="0"/>
+    <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotHierarchies count="6">
     <pivotHierarchy>
       <mps count="1">
-        <mp field="1"/>
+        <mp field="2"/>
       </mps>
     </pivotHierarchy>
     <pivotHierarchy/>
@@ -252,6 +277,35 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{FC9AAA1F-81C0-4F80-A790-134E8EB83C1D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="4">
+    <queryTableFields count="3">
+      <queryTableField id="1" name="[Msr Sales].[$Dim Account.Account Id]" tableColumnId="1"/>
+      <queryTableField id="2" name="[Msr Sales].[$Dim Date.Date]" tableColumnId="2"/>
+      <queryTableField id="3" name="[Msr Sales].[Value]" tableColumnId="3"/>
+    </queryTableFields>
+  </queryTableRefresh>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{883FBD77-0823-4a55-B5E3-86C4891E6966}">
+      <x15:queryTable drillThrough="1"/>
+    </ext>
+  </extLst>
+</queryTable>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64CC455D-F5CA-4933-841E-923C75733D5E}" name="Table_ExternalData_1" displayName="Table_ExternalData_1" ref="A3:C5" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A3:C5" xr:uid="{B59874DC-185D-4BA2-9470-FFF15D976FF5}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{BD637581-ED8F-4134-8E7E-E936675EA2FE}" uniqueName="1" name="[Msr Sales].[$Dim Account.Account Id]" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{1A9AEB70-1408-4BB2-AE9D-40DD7757C2E8}" uniqueName="2" name="[Msr Sales].[$Dim Date.Date]" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{D5977044-829D-487B-9FB1-AE2291D3048D}" uniqueName="3" name="[Msr Sales].[Value]" queryTableFieldId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,10 +570,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2222B407-91F8-446D-9128-2FEA886AC173}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>8345.0300000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>45.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -548,7 +663,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>6757.28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -564,7 +679,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>8390.18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -572,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>40869.51</v>
+        <v>25810.050000000003</v>
       </c>
     </row>
   </sheetData>
